--- a/finalp/src/main/webapp/resources/db/GIFT.xlsx
+++ b/finalp/src/main/webapp/resources/db/GIFT.xlsx
@@ -1501,6 +1501,96 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1521898552158</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>152189809208550</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1521898602893</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>17500.0</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>152189809208550</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1521898614718</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>32500.0</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>152189809208550</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1521898627930</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>47500.0</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>152189809208550</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1521898640604</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>61500.0</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>152189809208550</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/finalp/src/main/webapp/resources/db/GIFT.xlsx
+++ b/finalp/src/main/webapp/resources/db/GIFT.xlsx
@@ -1591,6 +1591,366 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1521923961003</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1521924069202</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1521924080533</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1521924088099</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1521924100403</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1521924112554</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1521924120307</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1521924128049</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1521924137497</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1521924145379</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1521924154370</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1521924165875</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1521924175801</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1521924185366</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1521924193857</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>80000.0</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1521924579944</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>152192435440652</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1521924643208</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>152192435440652</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1521924654138</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>152192435440652</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1521924664243</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>152192435440652</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1521924675935</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>152192435440652</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
